--- a/01_Input/00_CO Validation/Guinea - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Guinea - Energy Projects.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_DB14EBA813C8E1A198C364D9C05A2767096DB940" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C1C177-4C65-48E4-A654-F6383B5880F4}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="11_DB14EBA813C8E1A198C364D9C05A2767096DB940" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CDD1D00-618D-449D-90C6-A94D4C69C8C0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
   <si>
     <t>Project ID</t>
   </si>
@@ -68,7 +72,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -151,19 +155,19 @@
     <t>Health Services</t>
   </si>
   <si>
-    <t>Number of health facilities with access to electricity</t>
-  </si>
-  <si>
-    <t>Assumed 500 people per health center</t>
+    <t>Number of beneficiaries of health facilities with access to electricity</t>
+  </si>
+  <si>
+    <t>2 health center. Assumed 500 people per health center</t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Number of schools with access to electricity</t>
-  </si>
-  <si>
-    <t>Assumed 200 students per school</t>
+    <t>Number of beneficiaries of schools with access to electricity</t>
+  </si>
+  <si>
+    <t>2 schools. Assumed 200 students per school</t>
   </si>
   <si>
     <t>Gestion Intégrée des Ressources Naturelles</t>
@@ -176,6 +180,9 @@
   </si>
   <si>
     <t>Percentage of households in project EVs with an improved cook stove, and number of improved kilns</t>
+  </si>
+  <si>
+    <t>5500 HH</t>
   </si>
   <si>
     <t>At least 1,000 banco cookstove are used in the ecovillage, and 4,000 improved stoves in the surrounding urban areas.
@@ -211,6 +218,12 @@
     <t>The National Rural Electrification Plan (PNER) has been drawn up</t>
   </si>
   <si>
+    <t>Number of health facilities with access to electricity</t>
+  </si>
+  <si>
+    <t>Number of schools with access to electricity</t>
+  </si>
+  <si>
     <t xml:space="preserve">At least 1,000 banco cookstove are used in the ecovillage, and 4,000 improved stoves in the surrounding urban areas.
 At least 50 kilns are disseminated within the BF landscaper.
 At least 10 solar kits are used in the ecovillages.
@@ -324,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,12 +379,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -431,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -482,6 +489,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -490,7 +565,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -552,7 +627,46 @@
     <xf numFmtId="3" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,27 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,11 +985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDDCAF1-B3AD-4B99-9DBD-CB602273CC0C}">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ED96A3-57E1-4652-B097-1ABA80C02A81}">
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,83 +1000,81 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="50.85546875" customWidth="1"/>
-    <col min="13" max="13" width="49" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="19" customFormat="1" ht="76.5">
-      <c r="A2" s="18">
+    <row r="2" spans="1:18" s="19" customFormat="1" ht="76.5">
+      <c r="A2" s="33">
         <v>107168</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="31">
         <v>5628899</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -1006,23 +1097,22 @@
         <v>24</v>
       </c>
       <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="N2" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" s="20" customFormat="1" ht="91.5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+    </row>
+    <row r="3" spans="1:18" s="20" customFormat="1" ht="91.5">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -1034,7 +1124,7 @@
       <c r="H3" s="18">
         <v>0.216</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="18" t="s">
@@ -1045,23 +1135,22 @@
         <v>24</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="N3" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="O3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" s="20" customFormat="1" ht="91.5">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
+    </row>
+    <row r="4" spans="1:18" s="20" customFormat="1" ht="91.5">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1073,7 +1162,7 @@
       <c r="H4" s="22">
         <v>1000</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="18" t="s">
         <v>29</v>
       </c>
@@ -1082,23 +1171,22 @@
         <v>24</v>
       </c>
       <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="N4" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="O4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" s="20" customFormat="1" ht="60.75">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:18" s="20" customFormat="1" ht="60.75">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -1110,7 +1198,7 @@
       <c r="H5" s="22">
         <v>2</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="18" t="s">
         <v>23</v>
       </c>
@@ -1119,27 +1207,26 @@
         <v>24</v>
       </c>
       <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="O5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="R5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="20" customFormat="1" ht="45.75">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+    <row r="6" spans="1:18" s="20" customFormat="1" ht="60.75">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="27" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -1151,8 +1238,8 @@
       <c r="H6" s="18">
         <v>1000</v>
       </c>
-      <c r="I6" s="22">
-        <v>2</v>
+      <c r="I6" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>23</v>
@@ -1161,22 +1248,19 @@
       <c r="L6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="33" t="s">
-        <v>39</v>
-      </c>
+      <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" s="20" customFormat="1" ht="45.75">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+    </row>
+    <row r="7" spans="1:18" s="20" customFormat="1" ht="60.75">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -1188,8 +1272,8 @@
       <c r="H7" s="18">
         <v>400</v>
       </c>
-      <c r="I7" s="22">
-        <v>2</v>
+      <c r="I7" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>23</v>
@@ -1198,27 +1282,24 @@
       <c r="L7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="33" t="s">
-        <v>42</v>
-      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-    </row>
-    <row r="8" spans="1:19" s="20" customFormat="1" ht="259.5">
-      <c r="A8" s="18">
+    </row>
+    <row r="8" spans="1:18" s="20" customFormat="1" ht="259.5">
+      <c r="A8" s="28">
         <v>107166</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="30">
         <v>7460274</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -1230,52 +1311,446 @@
       <c r="G8" s="18">
         <v>0</v>
       </c>
+      <c r="H8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="17"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{85DD93A3-A0A6-4D47-A2D6-FAEA3DB45696}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{F222DF8F-A110-459A-BD19-135C47E8BCBD}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{0146E532-4A1E-404E-9387-62758E925E8D}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{1CC5823E-7B48-475C-89ED-1F0D1EA9C612}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{6C2EC87A-5A22-4690-A70B-A905ACB838D4}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2F79CCCB-3508-4F00-9F3F-D7B4DC6177BE}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{F0B692A3-6613-49E3-BAA3-273B3713C0C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73903981-F602-4016-B2CB-2FA50CBC769B}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDDCAF1-B3AD-4B99-9DBD-CB602273CC0C}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="50.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="19" customFormat="1" ht="76.5">
+      <c r="A2" s="33">
+        <v>107168</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="31">
+        <v>5628899</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="22">
+        <v>7263</v>
+      </c>
+      <c r="H2" s="22">
+        <v>12263</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" s="20" customFormat="1" ht="91.5">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.216</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" s="20" customFormat="1" ht="91.5">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" s="20" customFormat="1" ht="60.75">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="20" customFormat="1" ht="60.75">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" s="20" customFormat="1" ht="60.75">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>400</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" s="20" customFormat="1" ht="259.5">
+      <c r="A8" s="28">
+        <v>107166</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="30">
+        <v>7460274</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
       <c r="H8" s="18">
         <v>5500</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="O8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="B11" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{06A2954F-33FE-4D47-A01F-585A797054E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{06A2954F-33FE-4D47-A01F-585A797054E4}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{7BD5EE73-01D2-4F80-BAE5-74B737811042}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{7BD5EE73-01D2-4F80-BAE5-74B737811042}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{279A75A1-DE5F-444D-8E37-19BC50A5A9CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{279A75A1-DE5F-444D-8E37-19BC50A5A9CF}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{3233F83C-836B-4F92-9BE6-08AAD03CD8D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{3233F83C-836B-4F92-9BE6-08AAD03CD8D7}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{4F17223A-4ECD-4138-827A-B434599FB9B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{4F17223A-4ECD-4138-827A-B434599FB9B2}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1299,7 +1774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1389,13 +1864,13 @@
         <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>29</v>
@@ -1438,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>23</v>
@@ -1452,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
@@ -1473,7 +1948,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G7" s="13">
         <v>0</v>
@@ -1509,23 +1984,23 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="183">
       <c r="B11" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1564,160 +2039,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>60</v>
+      <c r="A2" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="37"/>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="37"/>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
-        <v>64</v>
+      <c r="A5" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="38"/>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="26" t="s">
-        <v>72</v>
+      <c r="A10" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="39"/>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="27" t="s">
-        <v>77</v>
+      <c r="A12" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="40"/>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="40"/>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1732,6 +2207,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -1782,15 +2266,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2043,11 +2518,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9B97FC-AB32-4A3A-8E52-BB2502D353DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A08CBA0-AC7B-4CC0-B087-BE830FB19E23}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A08CBA0-AC7B-4CC0-B087-BE830FB19E23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9B97FC-AB32-4A3A-8E52-BB2502D353DC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Guinea - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Guinea - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="209" documentId="11_DB14EBA813C8E1A198C364D9C05A2767096DB940" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CDD1D00-618D-449D-90C6-A94D4C69C8C0}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="11_DB14EBA813C8E1A198C364D9C05A2767096DB940" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5607F0D0-A6B1-4308-B00D-A1DE5B0F4FE4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Programme Environnement et Gest. Durable du Capital Nat</t>
@@ -112,7 +121,10 @@
     <t>Non-VF</t>
   </si>
   <si>
-    <t>Accelerating just energy transition</t>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Some Sources</t>
   </si>
   <si>
     <t>Energy (MW added)</t>
@@ -131,25 +143,19 @@
 UNDP</t>
   </si>
   <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
     <t>Water Services</t>
   </si>
   <si>
     <t>Number of people with access to water (water supply supplied by electricity from the mini hydroelectric power station)</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
     <t>Number of policies or strategies developed or revised</t>
   </si>
   <si>
     <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>National</t>
   </si>
   <si>
     <t>Health Services</t>
@@ -198,6 +204,15 @@
 UNDP</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
     <t>VF</t>
   </si>
   <si>
@@ -243,40 +258,52 @@
 Yes energy is not well taken into account, the total amount related to energy related activities (solar kits and improved stove) is less thanUSD 100,000.</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -285,7 +312,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -300,13 +330,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -315,16 +342,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -337,12 +367,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,8 +417,21 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,48 +446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -557,26 +570,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -586,7 +606,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -595,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -607,79 +627,146 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ED96A3-57E1-4652-B097-1ABA80C02A81}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,365 +1085,414 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="50.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="19" customFormat="1" ht="76.5">
-      <c r="A2" s="33">
+      <c r="S1" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="76.5">
+      <c r="A2" s="35">
         <v>107168</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>18</v>
+      <c r="B2" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="37">
+        <v>5628899</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="40">
+        <v>7263</v>
+      </c>
+      <c r="H2" s="40">
+        <v>12263</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="41"/>
+      <c r="U2" s="58"/>
+    </row>
+    <row r="3" spans="1:21" ht="91.5">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0.216</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="41"/>
+      <c r="N3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="41"/>
+      <c r="U3" s="58"/>
+    </row>
+    <row r="4" spans="1:21" ht="91.5">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="58"/>
+    </row>
+    <row r="5" spans="1:21" ht="45.75">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="31">
-        <v>5628899</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="22">
-        <v>7263</v>
-      </c>
-      <c r="H2" s="22">
-        <v>12263</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="F5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="45">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40">
+        <v>2</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="41"/>
+      <c r="N5" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" s="20" customFormat="1" ht="91.5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="27" t="s">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="58"/>
+      <c r="T5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="58"/>
+    </row>
+    <row r="6" spans="1:21" ht="60.75">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="18">
+      <c r="M6" s="41"/>
+      <c r="N6" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="58"/>
+    </row>
+    <row r="7" spans="1:21" ht="60.75">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="45">
         <v>0</v>
       </c>
-      <c r="H3" s="18">
-        <v>0.216</v>
-      </c>
-      <c r="I3" s="26" t="s">
+      <c r="H7" s="39">
+        <v>400</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" s="20" customFormat="1" ht="91.5">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="58"/>
+    </row>
+    <row r="8" spans="1:21" ht="259.5">
+      <c r="A8" s="47">
+        <v>107166</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="49">
+        <v>7460274</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="39">
         <v>0</v>
       </c>
-      <c r="H4" s="22">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="1:18" s="20" customFormat="1" ht="60.75">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>2</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="20" customFormat="1" ht="60.75">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" s="20" customFormat="1" ht="60.75">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>400</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" s="20" customFormat="1" ht="259.5">
-      <c r="A8" s="28">
-        <v>107166</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="30">
-        <v>7460274</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="18" t="s">
+      <c r="H8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="21" t="s">
+      <c r="I8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="17"/>
+      <c r="J8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="58"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{85DD93A3-A0A6-4D47-A2D6-FAEA3DB45696}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{F222DF8F-A110-459A-BD19-135C47E8BCBD}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{0146E532-4A1E-404E-9387-62758E925E8D}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{1CC5823E-7B48-475C-89ED-1F0D1EA9C612}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{6C2EC87A-5A22-4690-A70B-A905ACB838D4}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{4A2FA89E-329A-4790-A886-866A39703C3C}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{DF830120-261E-4D1D-8731-DEDB1CE4E1EB}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{B31C133A-96FD-4B2B-835F-D98C8DA2DD17}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{AA770657-2EA9-4A8D-B39C-77196AB11084}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{A459A881-2C6C-4ECC-98E9-5D3168374541}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{A0D3F06F-4A24-4F28-9061-5052AD669C25}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1369,7 +1505,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73903981-F602-4016-B2CB-2FA50CBC769B}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -1393,7 +1529,7 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="50.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
@@ -1401,340 +1537,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="19" customFormat="1" ht="76.5">
-      <c r="A2" s="33">
+    <row r="2" spans="1:18" s="17" customFormat="1" ht="76.5">
+      <c r="A2" s="31">
         <v>107168</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="29">
+        <v>5628899</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20">
+        <v>7263</v>
+      </c>
+      <c r="H2" s="20">
+        <v>12263</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" ht="91.5">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.216</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" s="18" customFormat="1" ht="91.5">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" s="18" customFormat="1" ht="60.75">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="31">
-        <v>5628899</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="22">
-        <v>7263</v>
-      </c>
-      <c r="H2" s="22">
-        <v>12263</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="F5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" s="20" customFormat="1" ht="91.5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="27" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="18" customFormat="1" ht="60.75">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="18">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" s="18" customFormat="1" ht="60.75">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="H3" s="18">
-        <v>0.216</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" s="20" customFormat="1" ht="91.5">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="H7" s="16">
+        <v>400</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" s="18" customFormat="1" ht="259.5">
+      <c r="A8" s="26">
+        <v>107166</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="28">
+        <v>7460274</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="22">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="1:18" s="20" customFormat="1" ht="60.75">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>2</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="20" customFormat="1" ht="60.75">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" s="20" customFormat="1" ht="60.75">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>400</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" s="20" customFormat="1" ht="259.5">
-      <c r="A8" s="28">
-        <v>107166</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="30">
-        <v>7460274</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>5500</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="J8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1764,7 +1900,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCA543D9-2E43-4384-8574-FCB565078C2D}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -1788,7 +1924,7 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1814,193 +1950,193 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="76.5">
-      <c r="A2" s="5">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="76.5">
+      <c r="A2" s="3">
         <v>107168</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5628899</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10">
+        <v>7263</v>
+      </c>
+      <c r="H2" s="10">
+        <v>12263</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="106.5">
+      <c r="A3" s="3">
+        <v>107168</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="91.5">
+      <c r="A4" s="3">
+        <v>107168</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45.75">
+      <c r="A5" s="3">
+        <v>107168</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5">
-        <v>5628899</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12">
-        <v>7263</v>
-      </c>
-      <c r="H2" s="12">
-        <v>12263</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="106.5">
-      <c r="A3" s="5">
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45.75">
+      <c r="A6" s="3">
         <v>107168</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="45.75">
+      <c r="A7" s="3">
+        <v>107168</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="229.5">
+      <c r="A8" s="3">
+        <v>107166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7460274</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="91.5">
-      <c r="A4" s="5">
-        <v>107168</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45.75">
-      <c r="A5" s="5">
-        <v>107168</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45.75">
-      <c r="A6" s="5">
-        <v>107168</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45.75">
-      <c r="A7" s="5">
-        <v>107168</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="229.5">
-      <c r="A8" s="5">
-        <v>107166</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7460274</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="15" t="s">
-        <v>59</v>
+      <c r="B10" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="183">
-      <c r="B11" s="17" t="s">
-        <v>60</v>
+      <c r="B11" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2150,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -2026,182 +2162,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="37"/>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="37"/>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="38" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="38"/>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B5" s="51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="38"/>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="59" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="38"/>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B6" s="51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="38"/>
-      <c r="B9" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="39" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="39"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="40"/>
-      <c r="B13" t="s">
+      <c r="B13" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="59" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="40"/>
-      <c r="B14" t="s">
+      <c r="B14" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="59" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="59" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="59" t="s">
         <v>90</v>
       </c>
+      <c r="B17" s="51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2216,59 +2364,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Mamadou Cire Camara</DisplayName>
-        <AccountId>1384</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mamadou kalidou Diallo</DisplayName>
-        <AccountId>1382</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luc Gregoire</DisplayName>
-        <AccountId>1897</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Charles Nyandiga</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fungai Matura</DisplayName>
-        <AccountId>1028</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2517,14 +2612,67 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Mamadou Cire Camara</DisplayName>
+        <AccountId>1384</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mamadou kalidou Diallo</DisplayName>
+        <AccountId>1382</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luc Gregoire</DisplayName>
+        <AccountId>1897</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Charles Nyandiga</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fungai Matura</DisplayName>
+        <AccountId>1028</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A08CBA0-AC7B-4CC0-B087-BE830FB19E23}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9B97FC-AB32-4A3A-8E52-BB2502D353DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF5737ED-CD80-4C78-84EB-0D59D4D57C2E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF5737ED-CD80-4C78-84EB-0D59D4D57C2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9B97FC-AB32-4A3A-8E52-BB2502D353DC}"/>
 </file>